--- a/public/dataStok.xlsx
+++ b/public/dataStok.xlsx
@@ -15,120 +15,414 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
-  <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
-    <t>Kode Barang</t>
-  </si>
-  <si>
-    <t>Nama Barang</t>
-  </si>
-  <si>
-    <t>Stok</t>
-  </si>
-  <si>
-    <t>Satuan</t>
-  </si>
-  <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t>0030</t>
-  </si>
-  <si>
-    <t>Tinta Epson 003 Cyan</t>
-  </si>
-  <si>
-    <t>pcs</t>
-  </si>
-  <si>
-    <t>0031</t>
-  </si>
-  <si>
-    <t>Tinta Epson 003 Magenta</t>
-  </si>
-  <si>
-    <t>0032</t>
-  </si>
-  <si>
-    <t>Tinta Epson 003 Yellow</t>
-  </si>
-  <si>
-    <t>0033</t>
-  </si>
-  <si>
-    <t>Tinta Epson 003 Black</t>
-  </si>
-  <si>
-    <t>Tinta Epson 664 Cyan</t>
-  </si>
-  <si>
-    <t>Tinta Epson 664 Magenta</t>
-  </si>
-  <si>
-    <t>Tinta Epson 664 Yellow</t>
-  </si>
-  <si>
-    <t>Tinta Epson 664 Black</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>Tinta Epson 001 Cyan</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>Tinta Epson 001 Magenta</t>
-  </si>
-  <si>
-    <t>0013</t>
-  </si>
-  <si>
-    <t>Tinta Epson 001 Yellow</t>
-  </si>
-  <si>
-    <t>0014</t>
-  </si>
-  <si>
-    <t>Tinta Epson 001 Black</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>Ribbon Epson LX-310</t>
-  </si>
-  <si>
-    <t>Ribbon Fujitsu DL-3850+</t>
-  </si>
-  <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
-    <t>Connector RJ45</t>
-  </si>
-  <si>
-    <t>Connector RJ11</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>Kabel HDMI</t>
-  </si>
-  <si>
-    <t>Kabel VGA</t>
-  </si>
-  <si>
-    <t>Converter VGA to HDMI</t>
-  </si>
-  <si>
-    <t>Kabel Console</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+  <si>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>Jenis</t>
+  </si>
+  <si>
+    <t>Nama Produk</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Lokasi</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>MCDI0001</t>
+  </si>
+  <si>
+    <t>Pocket Wifi</t>
+  </si>
+  <si>
+    <t>Prolink</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Plant 1</t>
+  </si>
+  <si>
+    <t>MCDI0002</t>
+  </si>
+  <si>
+    <t>Saito San</t>
+  </si>
+  <si>
+    <t>MCDI0003</t>
+  </si>
+  <si>
+    <t>Saito</t>
+  </si>
+  <si>
+    <t>USMIH0001</t>
+  </si>
+  <si>
+    <t>Flashdisk</t>
+  </si>
+  <si>
+    <t>Sandisk 3.2 Gen 1</t>
+  </si>
+  <si>
+    <t>010156F08F2442DBCD46F9A3B7C5EE518C7F68437473973C92640696E8CC4DA5BA90000000000000000000000092A040009873009155810736AF4481</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Agung Laksono</t>
+  </si>
+  <si>
+    <t>USMIH0002</t>
+  </si>
+  <si>
+    <t>0401669689CE17D93FB496DADE6468D072092486E91F253290E1EB76BDCBB2554CEC000000000000000000001AD904E0FF060618915581071FAEF4F9</t>
+  </si>
+  <si>
+    <t>Dies Maker</t>
+  </si>
+  <si>
+    <t>Anowo Idris</t>
+  </si>
+  <si>
+    <t>USMIH0003</t>
+  </si>
+  <si>
+    <t>04011306CDE0F88A7D34229E542CE2EC38077A2D17B1CD9B51B985A11EEF7C7A0B23000000000000000000005BDD26F5FF800518915581071FAEF4F3</t>
+  </si>
+  <si>
+    <t>Plant 2</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Dede Marjuki</t>
+  </si>
+  <si>
+    <t>USMIH0004</t>
+  </si>
+  <si>
+    <t>01012B79573E23BF6B9C0DB92AFF068D9A0BB1BD7F22EBDAE10F3CB5D4DC9344F8D200000000000000000000F4695624008873009155810736AF4470</t>
+  </si>
+  <si>
+    <t>USMIH0005</t>
+  </si>
+  <si>
+    <t>01014D6B6EE85A7062CBD985223AC9290776B690F6F4076DCB46C9CD2F05A7F5C838000000000000000000005510B767009973009155810736AF4482</t>
+  </si>
+  <si>
+    <t>USMIH0006</t>
+  </si>
+  <si>
+    <t>040171072E2991CDA0D3A3DF4A4BDC1204FE271870666B21A41AC8D9DDF8A774A68100000000000000000000FB59EAFBFF150618915581071FAEF4E6</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>Agung Prasojo</t>
+  </si>
+  <si>
+    <t>USMIH0007</t>
+  </si>
+  <si>
+    <t>040147DD67CD8A1F10DE701B4E31A53ECDCBAFFBE7245AD8772B31B3666645A96F1B00000000000000000000DA1BFB8DFF8D0518915581071FAEF524</t>
+  </si>
+  <si>
+    <t>Muh Muklis</t>
+  </si>
+  <si>
+    <t>USMIH0008</t>
+  </si>
+  <si>
+    <t>04015030DB27BF8412A98559AC85CA57F4D2049892E32FE6CA222609A4B26BE6D2410000000000000000000060A3314B00930518915581071FAEF505</t>
+  </si>
+  <si>
+    <t>USMIH0009</t>
+  </si>
+  <si>
+    <t>0101B114E6C16AAC7519C6B6D3662DC3E3E758D4B05AB23EF20125D3FF58B47412600000000000000000000018C4B0A1FF9673009155810736AF4474</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Anang Kuncoro</t>
+  </si>
+  <si>
+    <t>USMIH0010</t>
+  </si>
+  <si>
+    <t>0101288F0657A092C42799B4F1DD47FF27D56362D15A9634A04834E54A8E450A0F9200000000000000000000968D81D1FF0C74009155810736AF444A</t>
+  </si>
+  <si>
+    <t>HCI0001</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Dell Server</t>
+  </si>
+  <si>
+    <t>Data Center</t>
+  </si>
+  <si>
+    <t>192.168.162.35</t>
+  </si>
+  <si>
+    <t>Accounting/HR Server</t>
+  </si>
+  <si>
+    <t>HCI0002</t>
+  </si>
+  <si>
+    <t>192.168.162.36</t>
+  </si>
+  <si>
+    <t>Purchasing Server</t>
+  </si>
+  <si>
+    <t>HCI0003</t>
+  </si>
+  <si>
+    <t>192.168.162.34</t>
+  </si>
+  <si>
+    <t>Odoo Server</t>
+  </si>
+  <si>
+    <t>RTI0001</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Cisco 4321</t>
+  </si>
+  <si>
+    <t>Server Room</t>
+  </si>
+  <si>
+    <t>192.168.174.2</t>
+  </si>
+  <si>
+    <t>Main Router</t>
+  </si>
+  <si>
+    <t>RTI0002</t>
+  </si>
+  <si>
+    <t>192.168.174.3</t>
+  </si>
+  <si>
+    <t>Sub Router</t>
+  </si>
+  <si>
+    <t>LSI0001</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>CISCO 9300 NM-8X</t>
+  </si>
+  <si>
+    <t>192.168.174.1</t>
+  </si>
+  <si>
+    <t>Main Switch</t>
+  </si>
+  <si>
+    <t>LSI0002</t>
+  </si>
+  <si>
+    <t>Sub Switch</t>
+  </si>
+  <si>
+    <t>LSI0003</t>
+  </si>
+  <si>
+    <t>CISCO 1000 Series</t>
+  </si>
+  <si>
+    <t>192.168.174.4</t>
+  </si>
+  <si>
+    <t>L2 Switch</t>
+  </si>
+  <si>
+    <t>LSI0004</t>
+  </si>
+  <si>
+    <t>192.168.174.5</t>
+  </si>
+  <si>
+    <t>IPS0001</t>
+  </si>
+  <si>
+    <t>IPScan</t>
+  </si>
+  <si>
+    <t>Scope PROBE 100X</t>
+  </si>
+  <si>
+    <t>192.168.174.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP Scan </t>
+  </si>
+  <si>
+    <t>KPI0001</t>
+  </si>
+  <si>
+    <t>Access Point</t>
+  </si>
+  <si>
+    <t>CISCO 9100 AX</t>
+  </si>
+  <si>
+    <t>Office Lantai 2</t>
+  </si>
+  <si>
+    <t>192.168.174.20</t>
+  </si>
+  <si>
+    <t>Access Point Wifi</t>
+  </si>
+  <si>
+    <t>KPI0002</t>
+  </si>
+  <si>
+    <t>192.168.174.21</t>
+  </si>
+  <si>
+    <t>KPI0003</t>
+  </si>
+  <si>
+    <t>192.168.174.22</t>
+  </si>
+  <si>
+    <t>KPI0004</t>
+  </si>
+  <si>
+    <t>192.168.174.23</t>
+  </si>
+  <si>
+    <t>KPI0005</t>
+  </si>
+  <si>
+    <t>192.168.174.24</t>
+  </si>
+  <si>
+    <t>KPI0006</t>
+  </si>
+  <si>
+    <t>192.168.174.25</t>
+  </si>
+  <si>
+    <t>KPI0007</t>
+  </si>
+  <si>
+    <t>Genba</t>
+  </si>
+  <si>
+    <t>192.168.174.26</t>
+  </si>
+  <si>
+    <t>KPI0008</t>
+  </si>
+  <si>
+    <t>192.168.174.27</t>
+  </si>
+  <si>
+    <t>KPI0009</t>
+  </si>
+  <si>
+    <t>192.168.174.28</t>
+  </si>
+  <si>
+    <t>RTI0003</t>
+  </si>
+  <si>
+    <t>CISCO 4321</t>
+  </si>
+  <si>
+    <t>Server Rack</t>
+  </si>
+  <si>
+    <t>192.168.176.2</t>
+  </si>
+  <si>
+    <t>RTI0004</t>
+  </si>
+  <si>
+    <t>192.168.176.3</t>
+  </si>
+  <si>
+    <t>LSI0005</t>
+  </si>
+  <si>
+    <t>192.168.176.1</t>
+  </si>
+  <si>
+    <t>LSI0006</t>
+  </si>
+  <si>
+    <t>LSI0007</t>
+  </si>
+  <si>
+    <t>192.168.176.4</t>
+  </si>
+  <si>
+    <t>LSI0008</t>
+  </si>
+  <si>
+    <t>192.168.176.5</t>
+  </si>
+  <si>
+    <t>IPS0002</t>
+  </si>
+  <si>
+    <t>192.168.176.10</t>
+  </si>
+  <si>
+    <t>KPI0010</t>
+  </si>
+  <si>
+    <t>192.168.176.20</t>
+  </si>
+  <si>
+    <t>KPI0011</t>
+  </si>
+  <si>
+    <t>192.168.176.21</t>
+  </si>
+  <si>
+    <t>KPI0012</t>
+  </si>
+  <si>
+    <t>192.168.176.22</t>
+  </si>
+  <si>
+    <t>KPI0013</t>
+  </si>
+  <si>
+    <t>192.168.176.23</t>
   </si>
 </sst>
 </file>
@@ -468,7 +762,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +770,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,27 +786,45 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -521,316 +833,1085 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>249201224902676</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>249201224904575</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6640</v>
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6641</v>
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>6642</v>
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>6643</v>
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
+      <c r="D10" t="s">
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>3100</v>
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>3500</v>
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
       </c>
       <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
         <v>29</v>
       </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>4500</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>1100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>2200</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>2201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>2202</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>2203</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
+      <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
